--- a/Data/DCT121C1.xlsx
+++ b/Data/DCT121C1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Final_term_python\Student_attendance\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF842B3-900A-4383-989E-A7E2C2453759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>MSSV</t>
   </si>
@@ -37,200 +43,296 @@
     <t>27-12-2024</t>
   </si>
   <si>
+    <t>3-1-2025</t>
+  </si>
+  <si>
+    <t>10-1-2025</t>
+  </si>
+  <si>
     <t>17-1-2025</t>
   </si>
   <si>
     <t>23-1-2025</t>
   </si>
   <si>
-    <t>Vũ Thị Hải</t>
-  </si>
-  <si>
-    <t>Đặng Văn Hải</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Mai</t>
-  </si>
-  <si>
-    <t>Hoàng Quốc Hùng</t>
-  </si>
-  <si>
-    <t>Lê Hồng Dũng</t>
-  </si>
-  <si>
-    <t>Bùi Gia Dũng</t>
-  </si>
-  <si>
-    <t>Phạm Gia Nam</t>
-  </si>
-  <si>
-    <t>Vũ Minh Mai</t>
-  </si>
-  <si>
-    <t>Phạm Minh Linh</t>
+    <t>1-2-2025</t>
+  </si>
+  <si>
+    <t>3121178601</t>
+  </si>
+  <si>
+    <t>Trần Văn Hương</t>
+  </si>
+  <si>
+    <t>DCT121C3</t>
+  </si>
+  <si>
+    <t>09-03-1997</t>
+  </si>
+  <si>
+    <t>3121432296</t>
+  </si>
+  <si>
+    <t>Phạm Thị Nam</t>
+  </si>
+  <si>
+    <t>21-10-2001</t>
+  </si>
+  <si>
+    <t>3121874536</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hải</t>
+  </si>
+  <si>
+    <t>27-01-1998</t>
+  </si>
+  <si>
+    <t>3121483813</t>
+  </si>
+  <si>
+    <t>Vũ Quốc Mai</t>
+  </si>
+  <si>
+    <t>25-11-1995</t>
+  </si>
+  <si>
+    <t>3121270679</t>
+  </si>
+  <si>
+    <t>Đặng Anh Dũng</t>
+  </si>
+  <si>
+    <t>27-08-2005</t>
+  </si>
+  <si>
+    <t>3121730007</t>
+  </si>
+  <si>
+    <t>Trần Thị Hùng</t>
+  </si>
+  <si>
+    <t>08-11-2002</t>
+  </si>
+  <si>
+    <t>3121844226</t>
+  </si>
+  <si>
+    <t>Lê Minh Dũng</t>
+  </si>
+  <si>
+    <t>10-05-1997</t>
+  </si>
+  <si>
+    <t>3121485493</t>
+  </si>
+  <si>
+    <t>Vũ Văn Mai</t>
+  </si>
+  <si>
+    <t>17-03-2000</t>
+  </si>
+  <si>
+    <t>3121800179</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Linh</t>
+  </si>
+  <si>
+    <t>26-10-1998</t>
+  </si>
+  <si>
+    <t>3121636712</t>
+  </si>
+  <si>
+    <t>Phạm Văn Mai</t>
+  </si>
+  <si>
+    <t>12-12-2003</t>
+  </si>
+  <si>
+    <t>3121884430</t>
+  </si>
+  <si>
+    <t>Bùi Minh Hương</t>
+  </si>
+  <si>
+    <t>21-09-2000</t>
+  </si>
+  <si>
+    <t>3121279926</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hùng</t>
+  </si>
+  <si>
+    <t>02-01-2004</t>
+  </si>
+  <si>
+    <t>3121575873</t>
+  </si>
+  <si>
+    <t>Đặng Gia Dũng</t>
+  </si>
+  <si>
+    <t>22-09-2002</t>
+  </si>
+  <si>
+    <t>3121582143</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>18-09-2004</t>
+  </si>
+  <si>
+    <t>3121935776</t>
+  </si>
+  <si>
+    <t>Đặng Gia Lan</t>
+  </si>
+  <si>
+    <t>01-12-1996</t>
+  </si>
+  <si>
+    <t>3121462910</t>
+  </si>
+  <si>
+    <t>Lê Quốc Nam</t>
+  </si>
+  <si>
+    <t>24-12-1998</t>
+  </si>
+  <si>
+    <t>3121861936</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hùng</t>
+  </si>
+  <si>
+    <t>06-05-1996</t>
+  </si>
+  <si>
+    <t>3121205547</t>
+  </si>
+  <si>
+    <t>Đặng Quốc Mai</t>
+  </si>
+  <si>
+    <t>04-02-2001</t>
+  </si>
+  <si>
+    <t>3121198217</t>
+  </si>
+  <si>
+    <t>Lê Hồng Nam</t>
+  </si>
+  <si>
+    <t>26-02-2002</t>
+  </si>
+  <si>
+    <t>3121262888</t>
+  </si>
+  <si>
+    <t>Phạm Hồng Hương</t>
+  </si>
+  <si>
+    <t>11-01-1996</t>
+  </si>
+  <si>
+    <t>3121396873</t>
   </si>
   <si>
     <t>Lê Anh Lan</t>
   </si>
   <si>
-    <t>Hoàng Văn Hùng</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Nam</t>
-  </si>
-  <si>
-    <t>Trần Văn Nam</t>
-  </si>
-  <si>
-    <t>Vũ Gia Hương</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Nam</t>
-  </si>
-  <si>
-    <t>Đặng Quốc Hương</t>
-  </si>
-  <si>
-    <t>Trần Minh Linh</t>
-  </si>
-  <si>
-    <t>Đặng Quốc Mai</t>
-  </si>
-  <si>
-    <t>Vũ Anh Dũng</t>
-  </si>
-  <si>
-    <t>Vũ Minh Hải</t>
-  </si>
-  <si>
-    <t>Phạm Hồng Hùng</t>
-  </si>
-  <si>
-    <t>Bùi Thị Lan</t>
-  </si>
-  <si>
-    <t>Trần Hồng Hương</t>
-  </si>
-  <si>
-    <t>Bùi Quốc Linh</t>
-  </si>
-  <si>
-    <t>Trần Văn Hùng</t>
-  </si>
-  <si>
-    <t>Phạm Văn Hải</t>
-  </si>
-  <si>
-    <t>Hoàng Gia Linh</t>
-  </si>
-  <si>
-    <t>Lê Minh Nam</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Hùng</t>
-  </si>
-  <si>
-    <t>DCT121C1</t>
-  </si>
-  <si>
-    <t>12-08-1999</t>
-  </si>
-  <si>
-    <t>05-12-2002</t>
-  </si>
-  <si>
-    <t>24-10-2003</t>
-  </si>
-  <si>
-    <t>05-03-2001</t>
-  </si>
-  <si>
-    <t>17-10-1997</t>
-  </si>
-  <si>
-    <t>14-03-2002</t>
-  </si>
-  <si>
-    <t>21-05-2001</t>
-  </si>
-  <si>
-    <t>28-11-1997</t>
-  </si>
-  <si>
-    <t>23-06-2002</t>
-  </si>
-  <si>
-    <t>15-10-1998</t>
-  </si>
-  <si>
-    <t>23-12-1995</t>
-  </si>
-  <si>
-    <t>06-08-2000</t>
-  </si>
-  <si>
-    <t>19-01-2003</t>
-  </si>
-  <si>
-    <t>25-08-2000</t>
-  </si>
-  <si>
-    <t>26-02-1996</t>
-  </si>
-  <si>
-    <t>25-01-1996</t>
-  </si>
-  <si>
-    <t>17-04-2004</t>
-  </si>
-  <si>
-    <t>07-06-2004</t>
-  </si>
-  <si>
-    <t>02-02-2005</t>
-  </si>
-  <si>
-    <t>10-08-2002</t>
-  </si>
-  <si>
-    <t>09-11-1997</t>
-  </si>
-  <si>
-    <t>25-11-1995</t>
-  </si>
-  <si>
-    <t>25-01-2004</t>
-  </si>
-  <si>
-    <t>21-07-2001</t>
-  </si>
-  <si>
-    <t>15-01-1998</t>
-  </si>
-  <si>
-    <t>03-01-2001</t>
-  </si>
-  <si>
-    <t>08-11-2000</t>
-  </si>
-  <si>
-    <t>01-01-2003</t>
-  </si>
-  <si>
-    <t>28-05-1998</t>
-  </si>
-  <si>
-    <t>17-09-1996</t>
+    <t>06-07-2004</t>
+  </si>
+  <si>
+    <t>3121200449</t>
+  </si>
+  <si>
+    <t>Trần Quốc Nam</t>
+  </si>
+  <si>
+    <t>10-10-1998</t>
+  </si>
+  <si>
+    <t>3121855715</t>
+  </si>
+  <si>
+    <t>Vũ Gia Lan</t>
+  </si>
+  <si>
+    <t>03-11-1996</t>
+  </si>
+  <si>
+    <t>3121971100</t>
+  </si>
+  <si>
+    <t>Vũ Gia Dũng</t>
+  </si>
+  <si>
+    <t>17-06-1998</t>
+  </si>
+  <si>
+    <t>3121984951</t>
+  </si>
+  <si>
+    <t>Đặng Quốc Lan</t>
+  </si>
+  <si>
+    <t>05-09-2005</t>
+  </si>
+  <si>
+    <t>3121420380</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Hải</t>
+  </si>
+  <si>
+    <t>03-11-2005</t>
+  </si>
+  <si>
+    <t>3121718271</t>
+  </si>
+  <si>
+    <t>Đặng Thị Hùng</t>
+  </si>
+  <si>
+    <t>07-02-2002</t>
+  </si>
+  <si>
+    <t>3121575767</t>
+  </si>
+  <si>
+    <t>Bùi Văn Hải</t>
+  </si>
+  <si>
+    <t>23-07-1996</t>
+  </si>
+  <si>
+    <t>3121724672</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hương</t>
+  </si>
+  <si>
+    <t>09-12-2003</t>
+  </si>
+  <si>
+    <t>3121191454</t>
+  </si>
+  <si>
+    <t>16-12-2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,10 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,12 +381,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -296,6 +392,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -583,14 +687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,443 +718,443 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
-        <v>45717</v>
-      </c>
-      <c r="I1" s="2">
-        <v>45931</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>3121217601</v>
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>3121906343</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>3121616047</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>3121214938</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>3121110359</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>3121199912</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>3121242017</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>3121187772</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>3121209540</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>3121747963</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>3121251357</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>3121110944</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>3121325721</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>3121636083</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>3121720955</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>3121729125</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>3121598524</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>3121290688</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>3121210668</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>3121740793</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>3121413054</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>3121387742</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>3121647676</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>3121510257</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>3121551857</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>3121813666</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>3121723529</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>3121383912</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>3121692864</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>3121163375</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/DCT121C1.xlsx
+++ b/Data/DCT121C1.xlsx
@@ -761,7 +761,11 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1121,11 +1125,7 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
